--- a/2017-06-29_iceman/Results.xlsx
+++ b/2017-06-29_iceman/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Illumina Run ID</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Sample</t>
+  </si>
+  <si>
+    <t>mutation rate per year</t>
   </si>
 </sst>
 </file>
@@ -127,9 +130,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -193,24 +196,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -543,7 +548,7 @@
     <col min="13" max="13" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,8 +591,11 @@
       <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -630,8 +638,16 @@
       <c r="N2" s="6">
         <v>0.83835441666400001</v>
       </c>
+      <c r="O2" s="17">
+        <f>K2/50</f>
+        <v>2.260288835E-6</v>
+      </c>
+      <c r="P2" s="17">
+        <f>K2/40</f>
+        <v>2.8253610437499997E-6</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -674,8 +690,16 @@
       <c r="N3" s="6">
         <v>0.59319019306300003</v>
       </c>
+      <c r="O3" s="17">
+        <f t="shared" ref="O3:O8" si="0">K3/50</f>
+        <v>1.59468310918E-6</v>
+      </c>
+      <c r="P3" s="17">
+        <f t="shared" ref="P3:P8" si="1">K3/40</f>
+        <v>1.993353886475E-6</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -718,8 +742,16 @@
       <c r="N4" s="6">
         <v>0.71540714609199996</v>
       </c>
+      <c r="O4" s="17">
+        <f t="shared" si="0"/>
+        <v>7.4813989943800008E-7</v>
+      </c>
+      <c r="P4" s="17">
+        <f t="shared" si="1"/>
+        <v>9.3517487429750007E-7</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
@@ -762,8 +794,16 @@
       <c r="N5" s="13">
         <v>0.70956496231800004</v>
       </c>
+      <c r="O5" s="17">
+        <f t="shared" si="0"/>
+        <v>2.2235348491999998E-6</v>
+      </c>
+      <c r="P5" s="17">
+        <f t="shared" si="1"/>
+        <v>2.7794185615000001E-6</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
@@ -806,8 +846,16 @@
       <c r="N6" s="13">
         <v>0.70128070142999999</v>
       </c>
+      <c r="O6" s="17">
+        <f t="shared" si="0"/>
+        <v>2.4404819883000001E-6</v>
+      </c>
+      <c r="P6" s="17">
+        <f t="shared" si="1"/>
+        <v>3.0506024853750002E-6</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
@@ -850,8 +898,16 @@
       <c r="N7" s="13">
         <v>0.48427264848099999</v>
       </c>
+      <c r="O7" s="17">
+        <f t="shared" si="0"/>
+        <v>3.1689821093599999E-6</v>
+      </c>
+      <c r="P7" s="17">
+        <f t="shared" si="1"/>
+        <v>3.9612276367000001E-6</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -894,6 +950,20 @@
       <c r="N8" s="13">
         <v>0.52604558823000003</v>
       </c>
+      <c r="O8" s="17">
+        <f t="shared" si="0"/>
+        <v>2.5651865606400003E-6</v>
+      </c>
+      <c r="P8" s="17">
+        <f t="shared" si="1"/>
+        <v>3.2064832008000003E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F12" s="18"/>
     </row>
   </sheetData>
   <sortState ref="A2:N8">
